--- a/leumi/lemui summary.XLSX
+++ b/leumi/lemui summary.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nofshonitjmeterci\leumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D77A522-5559-4EF8-9B9F-8653A5ED55B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8FEC89-5FA3-46F2-BE55-6DC2400BE9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="1245" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -51,16 +51,16 @@
     <t>אחוזי שגיאה %</t>
   </si>
   <si>
-    <t>שעה</t>
-  </si>
-  <si>
     <t xml:space="preserve">סיכום שדר 4 + 5 </t>
   </si>
   <si>
     <t>שדר 4</t>
   </si>
   <si>
-    <t xml:space="preserve">שדר 5 </t>
+    <t>עשר דק</t>
+  </si>
+  <si>
+    <t>שדר 4.1</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +439,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -478,25 +478,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4680</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3811</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>16877</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3106</v>
-      </c>
-      <c r="C4" s="3">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>163</v>
-      </c>
-      <c r="E4" s="2">
-        <v>120</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3172</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="H4" s="8">
         <v>0</v>
@@ -507,22 +507,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>2787</v>
+        <v>3288</v>
       </c>
       <c r="C5" s="3">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
-        <v>951</v>
+        <v>2053</v>
       </c>
       <c r="E5" s="2">
-        <v>1327</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2">
-        <v>3504</v>
+        <v>10749</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" s="8">
         <v>0</v>

--- a/leumi/lemui summary.XLSX
+++ b/leumi/lemui summary.XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\nofshonitjmeterci\leumi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8FEC89-5FA3-46F2-BE55-6DC2400BE9D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DA885E-A505-4839-8866-6C4D08C683C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="7710" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>בקשה</t>
   </si>
@@ -60,7 +60,16 @@
     <t>עשר דק</t>
   </si>
   <si>
-    <t>שדר 4.1</t>
+    <t>שדר 5</t>
+  </si>
+  <si>
+    <t>מסקנה</t>
+  </si>
+  <si>
+    <t>עבר</t>
+  </si>
+  <si>
+    <t>חלק קטן מהרכישות לא בוצעו</t>
   </si>
 </sst>
 </file>
@@ -425,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +446,7 @@
     <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -450,7 +459,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -475,8 +484,12 @@
       <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -501,35 +514,58 @@
       <c r="H4" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>3288</v>
+        <v>8547</v>
       </c>
       <c r="C5" s="3">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="D5" s="2">
-        <v>2053</v>
+        <v>13857</v>
       </c>
       <c r="E5" s="2">
-        <v>55</v>
+        <v>2500</v>
       </c>
       <c r="F5" s="2">
-        <v>10749</v>
+        <v>203915</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+        <v>6.3531063531063497E-2</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -539,17 +575,6 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
